--- a/Code/Results/Cases/Case_3_121/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_121/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.46165937025935</v>
+        <v>10.39602535399267</v>
       </c>
       <c r="C2">
-        <v>6.395181500546817</v>
+        <v>4.135582061848216</v>
       </c>
       <c r="D2">
-        <v>7.693360489085488</v>
+        <v>10.05864041608433</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.08148696251272</v>
+        <v>34.79411174578443</v>
       </c>
       <c r="G2">
-        <v>2.104294863848222</v>
+        <v>3.665364992533431</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.966901639869922</v>
+        <v>11.33038245765799</v>
       </c>
       <c r="K2">
-        <v>10.87694081091097</v>
+        <v>9.7921287399933</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.35036461096823</v>
+        <v>16.32970447612944</v>
       </c>
       <c r="N2">
-        <v>12.98746830650418</v>
+        <v>20.07931252617129</v>
       </c>
       <c r="O2">
-        <v>16.87716321019305</v>
+        <v>25.86532493136859</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.628800762723</v>
+        <v>10.16711443461404</v>
       </c>
       <c r="C3">
-        <v>6.078968349787512</v>
+        <v>3.97644282478712</v>
       </c>
       <c r="D3">
-        <v>7.369716129962288</v>
+        <v>10.01775615280918</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.76978789109439</v>
+        <v>34.84360220454653</v>
       </c>
       <c r="G3">
-        <v>2.10894728193291</v>
+        <v>3.667143155626547</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.914030755789848</v>
+        <v>11.34755289905068</v>
       </c>
       <c r="K3">
-        <v>10.22590920805418</v>
+        <v>9.643952018225587</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.82999068222205</v>
+        <v>16.26374454266087</v>
       </c>
       <c r="N3">
-        <v>13.19071564477597</v>
+        <v>20.14002625001507</v>
       </c>
       <c r="O3">
-        <v>16.85752469307651</v>
+        <v>25.93428203033342</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.08731100925195</v>
+        <v>10.02598674484173</v>
       </c>
       <c r="C4">
-        <v>5.876018890359243</v>
+        <v>3.874652717405173</v>
       </c>
       <c r="D4">
-        <v>7.167049663494479</v>
+        <v>9.994364236923495</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.59500086268859</v>
+        <v>34.88138645691993</v>
       </c>
       <c r="G4">
-        <v>2.111896096026626</v>
+        <v>3.668293479806635</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.884930638421105</v>
+        <v>11.35968546778925</v>
       </c>
       <c r="K4">
-        <v>9.804537433244873</v>
+        <v>9.553513760216759</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.50392556510752</v>
+        <v>16.22591919658767</v>
       </c>
       <c r="N4">
-        <v>13.31832067978494</v>
+        <v>20.17904413660762</v>
       </c>
       <c r="O4">
-        <v>16.8579750705021</v>
+        <v>25.98143678338791</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.85903793495366</v>
+        <v>9.968417188751427</v>
       </c>
       <c r="C5">
-        <v>5.791155362539801</v>
+        <v>3.832184830550421</v>
       </c>
       <c r="D5">
-        <v>7.083591627270261</v>
+        <v>9.985269387815176</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.52791123247913</v>
+        <v>34.8986418649825</v>
       </c>
       <c r="G5">
-        <v>2.11312142101829</v>
+        <v>3.668777008248083</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.873907573827089</v>
+        <v>11.3650295072906</v>
       </c>
       <c r="K5">
-        <v>9.627410552806676</v>
+        <v>9.516841130804</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.36959770537382</v>
+        <v>16.21118917799142</v>
       </c>
       <c r="N5">
-        <v>13.37104895179956</v>
+        <v>20.19538291572005</v>
       </c>
       <c r="O5">
-        <v>16.86119813734713</v>
+        <v>26.00186190490783</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.82067250651107</v>
+        <v>9.958856809948324</v>
       </c>
       <c r="C6">
-        <v>5.776935090996181</v>
+        <v>3.825074624132272</v>
       </c>
       <c r="D6">
-        <v>7.069684825660564</v>
+        <v>9.983785823834895</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.51701965417805</v>
+        <v>34.90161926303517</v>
       </c>
       <c r="G6">
-        <v>2.11332632772737</v>
+        <v>3.66885819070324</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.87212734082734</v>
+        <v>11.36594103829449</v>
       </c>
       <c r="K6">
-        <v>9.59767276166939</v>
+        <v>9.51076396408231</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.34721100700162</v>
+        <v>16.20878491347097</v>
       </c>
       <c r="N6">
-        <v>13.37984903336319</v>
+        <v>20.1981224901104</v>
       </c>
       <c r="O6">
-        <v>16.8619137856271</v>
+        <v>26.00532646488492</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.08426330971654</v>
+        <v>10.02521046477322</v>
       </c>
       <c r="C7">
-        <v>5.874883061260658</v>
+        <v>3.87408392577054</v>
       </c>
       <c r="D7">
-        <v>7.165927467984674</v>
+        <v>9.994239799786277</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.59407937236306</v>
+        <v>34.8816116494013</v>
       </c>
       <c r="G7">
-        <v>2.111912524780327</v>
+        <v>3.668299941008928</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.88477860906887</v>
+        <v>11.35975591996589</v>
       </c>
       <c r="K7">
-        <v>9.802170517584493</v>
+        <v>9.553018384895212</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.50211958447135</v>
+        <v>16.22571775764457</v>
       </c>
       <c r="N7">
-        <v>13.31902881550769</v>
+        <v>20.17926270922635</v>
       </c>
       <c r="O7">
-        <v>16.85800637173126</v>
+        <v>25.98170734994255</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.18071475654861</v>
+        <v>10.31726695592237</v>
       </c>
       <c r="C8">
-        <v>6.288003685957406</v>
+        <v>4.081578463330859</v>
       </c>
       <c r="D8">
-        <v>7.582656387759918</v>
+        <v>10.04419286702543</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.97055022486808</v>
+        <v>34.80963978441845</v>
       </c>
       <c r="G8">
-        <v>2.105880169864956</v>
+        <v>3.665965983734516</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.947968086044992</v>
+        <v>11.33597294840288</v>
       </c>
       <c r="K8">
-        <v>10.65696740205807</v>
+        <v>9.740951809745644</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.17240906361619</v>
+        <v>16.30641364586157</v>
       </c>
       <c r="N8">
-        <v>13.05697795705728</v>
+        <v>20.09988637902383</v>
       </c>
       <c r="O8">
-        <v>16.86773250053722</v>
+        <v>25.88810112286009</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.09381676755035</v>
+        <v>10.8818010481764</v>
       </c>
       <c r="C9">
-        <v>7.026632329600882</v>
+        <v>4.454691219132172</v>
       </c>
       <c r="D9">
-        <v>8.363887843630136</v>
+        <v>10.15538753308379</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.84156621125319</v>
+        <v>34.72726346859058</v>
       </c>
       <c r="G9">
-        <v>2.094759944589801</v>
+        <v>3.661851395283432</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.098962916955815</v>
+        <v>11.30194227954211</v>
       </c>
       <c r="K9">
-        <v>12.16101398190471</v>
+        <v>10.11182333382776</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.42751594647631</v>
+        <v>16.48533302064598</v>
       </c>
       <c r="N9">
-        <v>12.56436777162117</v>
+        <v>19.95797147189642</v>
       </c>
       <c r="O9">
-        <v>16.99070200722705</v>
+        <v>25.74280919488118</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.35758582096261</v>
+        <v>11.28697372016145</v>
       </c>
       <c r="C10">
-        <v>7.524031326564224</v>
+        <v>4.706609648543788</v>
       </c>
       <c r="D10">
-        <v>8.910707028375233</v>
+        <v>10.24466535458345</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.56324134568193</v>
+        <v>34.70262792124444</v>
       </c>
       <c r="G10">
-        <v>2.086989311798999</v>
+        <v>3.659107331724448</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.226885777975321</v>
+        <v>11.28461491602058</v>
       </c>
       <c r="K10">
-        <v>13.16104273595985</v>
+        <v>10.38312575776694</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.30527908953978</v>
+        <v>16.62861397317426</v>
       </c>
       <c r="N10">
-        <v>12.21389646739499</v>
+        <v>19.86199897744248</v>
       </c>
       <c r="O10">
-        <v>17.15059298266717</v>
+        <v>25.65947929521219</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.9023339270139</v>
+        <v>11.46832378864206</v>
       </c>
       <c r="C11">
-        <v>7.740276661512323</v>
+        <v>4.816125807520686</v>
       </c>
       <c r="D11">
-        <v>9.15273673444136</v>
+        <v>10.28681421994195</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.90931004308706</v>
+        <v>34.6992143821803</v>
       </c>
       <c r="G11">
-        <v>2.083533276961851</v>
+        <v>3.657918934975835</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.288853640542192</v>
+        <v>11.27839549108628</v>
       </c>
       <c r="K11">
-        <v>13.59333955647102</v>
+        <v>10.50576083118627</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.69365984372079</v>
+        <v>16.69618603384941</v>
       </c>
       <c r="N11">
-        <v>12.05658807203163</v>
+        <v>19.82012106566284</v>
       </c>
       <c r="O11">
-        <v>17.23970968540486</v>
+        <v>25.62667110521156</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.10433215869741</v>
+        <v>11.53650189730244</v>
       </c>
       <c r="C12">
-        <v>7.82071240356545</v>
+        <v>4.856847798498057</v>
       </c>
       <c r="D12">
-        <v>9.243366639938925</v>
+        <v>10.30298567148032</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.04290480325345</v>
+        <v>34.69904135237303</v>
       </c>
       <c r="G12">
-        <v>2.08223523789998</v>
+        <v>3.657477485692902</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.312867708619848</v>
+        <v>11.27627909273758</v>
       </c>
       <c r="K12">
-        <v>13.75380591172857</v>
+        <v>10.55204454432226</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.83907620775062</v>
+        <v>16.72210190702038</v>
       </c>
       <c r="N12">
-        <v>11.99729375155666</v>
+        <v>19.80451767950189</v>
       </c>
       <c r="O12">
-        <v>17.27591195462028</v>
+        <v>25.61498184686521</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.06101804920431</v>
+        <v>11.52184159265686</v>
       </c>
       <c r="C13">
-        <v>7.803453797723492</v>
+        <v>4.84811118417208</v>
       </c>
       <c r="D13">
-        <v>9.223894060466689</v>
+        <v>10.29949366105405</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.01401973069462</v>
+        <v>34.69902884689103</v>
       </c>
       <c r="G13">
-        <v>2.082514329406594</v>
+        <v>3.657572179164179</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.307671387803412</v>
+        <v>11.27672428425563</v>
       </c>
       <c r="K13">
-        <v>13.71939015256798</v>
+        <v>10.54208410447951</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.80783296738841</v>
+        <v>16.71650614567154</v>
       </c>
       <c r="N13">
-        <v>12.01005211828472</v>
+        <v>19.80786683078974</v>
       </c>
       <c r="O13">
-        <v>17.26800436857115</v>
+        <v>25.61746665253674</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.91903805497563</v>
+        <v>11.47394314518577</v>
       </c>
       <c r="C14">
-        <v>7.746923291920653</v>
+        <v>4.819491145464451</v>
       </c>
       <c r="D14">
-        <v>9.160213660149601</v>
+        <v>10.28814049446075</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.9202500041527</v>
+        <v>34.69917771688472</v>
       </c>
       <c r="G14">
-        <v>2.083426276227447</v>
+        <v>3.657882445143219</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.29081827676917</v>
+        <v>11.27821659080953</v>
       </c>
       <c r="K14">
-        <v>13.60660593511387</v>
+        <v>10.50957197817766</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.70565692918766</v>
+        <v>16.69831167379665</v>
       </c>
       <c r="N14">
-        <v>12.05170456233108</v>
+        <v>19.81883226430754</v>
       </c>
       <c r="O14">
-        <v>17.2426382893473</v>
+        <v>25.62569469587718</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.8315145229206</v>
+        <v>11.44453750781591</v>
       </c>
       <c r="C15">
-        <v>7.712107461078165</v>
+        <v>4.801862449629326</v>
       </c>
       <c r="D15">
-        <v>9.121073100525958</v>
+        <v>10.28121346666583</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.86314456811229</v>
+        <v>34.6994146663917</v>
       </c>
       <c r="G15">
-        <v>2.083986241564718</v>
+        <v>3.658073606954351</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.280566800876924</v>
+        <v>11.27916175404393</v>
       </c>
       <c r="K15">
-        <v>13.53710166201519</v>
+        <v>10.48963585641559</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.64285340098013</v>
+        <v>16.687209231719</v>
       </c>
       <c r="N15">
-        <v>12.07725276313315</v>
+        <v>19.82558206640476</v>
       </c>
       <c r="O15">
-        <v>17.22742355768477</v>
+        <v>25.63083029744224</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.32138277119096</v>
+        <v>11.27505640775234</v>
       </c>
       <c r="C16">
-        <v>7.50969647903031</v>
+        <v>4.699348584998692</v>
       </c>
       <c r="D16">
-        <v>8.894749619987394</v>
+        <v>10.24194086347084</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.54098183832519</v>
+        <v>34.70300774958741</v>
       </c>
       <c r="G16">
-        <v>2.087216703724081</v>
+        <v>3.659186197857772</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.222912462190371</v>
+        <v>11.28505480225415</v>
       </c>
       <c r="K16">
-        <v>13.13233732929606</v>
+        <v>10.37509181390562</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.27967012670553</v>
+        <v>16.62424474958678</v>
       </c>
       <c r="N16">
-        <v>12.22421710882493</v>
+        <v>19.86477152563385</v>
       </c>
       <c r="O16">
-        <v>17.145107256932</v>
+        <v>25.66172610353114</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.00074648106418</v>
+        <v>11.17027532637172</v>
       </c>
       <c r="C17">
-        <v>7.38294750039267</v>
+        <v>4.635143750621423</v>
       </c>
       <c r="D17">
-        <v>8.75414341650381</v>
+        <v>10.21823458190106</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.34789200065262</v>
+        <v>34.70720749680923</v>
       </c>
       <c r="G17">
-        <v>2.089218233490118</v>
+        <v>3.659884046318761</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.188514220920031</v>
+        <v>11.28909566413928</v>
       </c>
       <c r="K17">
-        <v>12.87824467534731</v>
+        <v>10.30459134323436</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.05400645786075</v>
+        <v>16.58621951964303</v>
       </c>
       <c r="N17">
-        <v>12.31489768829371</v>
+        <v>19.88926818045543</v>
       </c>
       <c r="O17">
-        <v>17.09887671854116</v>
+        <v>25.68198659795639</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.81348437379816</v>
+        <v>11.10973275700681</v>
       </c>
       <c r="C18">
-        <v>7.309101582874979</v>
+        <v>4.5977373252529</v>
       </c>
       <c r="D18">
-        <v>8.672640385894629</v>
+        <v>10.20474456301401</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.23850578300615</v>
+        <v>34.71035672813804</v>
       </c>
       <c r="G18">
-        <v>2.090376925051213</v>
+        <v>3.660291070031744</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.169084311559079</v>
+        <v>11.29157640414303</v>
       </c>
       <c r="K18">
-        <v>12.72996665475941</v>
+        <v>10.26397023612944</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.92318693051841</v>
+        <v>16.56457464748382</v>
       </c>
       <c r="N18">
-        <v>12.36725648422848</v>
+        <v>19.90352566195465</v>
       </c>
       <c r="O18">
-        <v>17.07382224489261</v>
+        <v>25.69411977371827</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.74959130215733</v>
+        <v>11.08918898290078</v>
       </c>
       <c r="C19">
-        <v>7.283937019610633</v>
+        <v>4.584990751121203</v>
       </c>
       <c r="D19">
-        <v>8.644938502935227</v>
+        <v>10.20020232138622</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.20175724369518</v>
+        <v>34.71154902986176</v>
       </c>
       <c r="G19">
-        <v>2.090770539456502</v>
+        <v>3.660429851169302</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.162566488713897</v>
+        <v>11.29244323644765</v>
       </c>
       <c r="K19">
-        <v>12.6793958671942</v>
+        <v>10.25020575561714</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.87872073487242</v>
+        <v>16.55728540942096</v>
       </c>
       <c r="N19">
-        <v>12.38501981239392</v>
+        <v>19.90838183032692</v>
       </c>
       <c r="O19">
-        <v>17.06559996046416</v>
+        <v>25.69831023687434</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.03517240258386</v>
+        <v>11.18145845397043</v>
       </c>
       <c r="C20">
-        <v>7.396537860286212</v>
+        <v>4.64202802751934</v>
       </c>
       <c r="D20">
-        <v>8.769176828975603</v>
+        <v>10.22074320100233</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.36827355902583</v>
+        <v>34.70668450229847</v>
       </c>
       <c r="G20">
-        <v>2.089004399289862</v>
+        <v>3.659809175769005</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.192139186307426</v>
+        <v>11.28864930827036</v>
       </c>
       <c r="K20">
-        <v>12.90551367324068</v>
+        <v>10.31210391484706</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.07813536656916</v>
+        <v>16.5902440722284</v>
       </c>
       <c r="N20">
-        <v>12.30522392158739</v>
+        <v>19.88664312662453</v>
       </c>
       <c r="O20">
-        <v>17.10363832238359</v>
+        <v>25.67978015885109</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.96085694377286</v>
+        <v>11.48802604567377</v>
       </c>
       <c r="C21">
-        <v>7.763567125100337</v>
+        <v>4.827918016827801</v>
       </c>
       <c r="D21">
-        <v>9.178946245096714</v>
+        <v>10.29146956283606</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.94772343919042</v>
+        <v>34.69910361626456</v>
       </c>
       <c r="G21">
-        <v>2.083158130729066</v>
+        <v>3.657791080225322</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.295753525853171</v>
+        <v>11.27777178738071</v>
       </c>
       <c r="K21">
-        <v>13.63982102469431</v>
+        <v>10.51912613411864</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.73571401574856</v>
+        <v>16.70364706710393</v>
       </c>
       <c r="N21">
-        <v>12.03946301844541</v>
+        <v>19.81560454274564</v>
       </c>
       <c r="O21">
-        <v>17.25002149191841</v>
+        <v>25.62325797687098</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.54088693017884</v>
+        <v>11.68547056926913</v>
       </c>
       <c r="C22">
-        <v>7.994979383668491</v>
+        <v>4.945033095779664</v>
       </c>
       <c r="D22">
-        <v>9.440782152881482</v>
+        <v>10.33891582411508</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.34126180246887</v>
+        <v>34.70067400252727</v>
       </c>
       <c r="G22">
-        <v>2.079399211473204</v>
+        <v>3.656522076120742</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.366668985951308</v>
+        <v>11.27205418437173</v>
       </c>
       <c r="K22">
-        <v>14.10088869610296</v>
+        <v>10.65350179172834</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.18191789072655</v>
+        <v>16.77966525559049</v>
       </c>
       <c r="N22">
-        <v>11.86736011522796</v>
+        <v>19.77066177035132</v>
       </c>
       <c r="O22">
-        <v>17.3600494065548</v>
+        <v>25.59059912371918</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.23358104413689</v>
+        <v>11.58037895748449</v>
       </c>
       <c r="C23">
-        <v>7.872246669957199</v>
+        <v>4.882932275575184</v>
       </c>
       <c r="D23">
-        <v>9.301597264191088</v>
+        <v>10.31348448081055</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>26.12986949126238</v>
+        <v>34.69923935205707</v>
       </c>
       <c r="G23">
-        <v>2.081399975267378</v>
+        <v>3.657194811803758</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.328525821932557</v>
+        <v>11.27497858881323</v>
       </c>
       <c r="K23">
-        <v>13.85652527841155</v>
+        <v>10.58188144956507</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.93250365618609</v>
+        <v>16.73892432073007</v>
       </c>
       <c r="N23">
-        <v>11.95907995147876</v>
+        <v>19.79451307142094</v>
       </c>
       <c r="O23">
-        <v>17.29997939025783</v>
+        <v>25.6076376164378</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.01961755486337</v>
+        <v>11.17640349900157</v>
       </c>
       <c r="C24">
-        <v>7.390396698516423</v>
+        <v>4.638917183881428</v>
       </c>
       <c r="D24">
-        <v>8.762382295374243</v>
+        <v>10.21960862044923</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.35905399826895</v>
+        <v>34.70691865936683</v>
       </c>
       <c r="G24">
-        <v>2.089101048809821</v>
+        <v>3.659843006608078</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.190499261843724</v>
+        <v>11.28885061484023</v>
       </c>
       <c r="K24">
-        <v>12.89319220303113</v>
+        <v>10.30870775652175</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.06723005197963</v>
+        <v>16.58842389689858</v>
       </c>
       <c r="N24">
-        <v>12.3095967274163</v>
+        <v>19.88782937127143</v>
       </c>
       <c r="O24">
-        <v>17.10148086173698</v>
+        <v>25.68077617884781</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.60137343603136</v>
+        <v>10.73044655665825</v>
       </c>
       <c r="C25">
-        <v>6.83467232846005</v>
+        <v>4.357552632141795</v>
       </c>
       <c r="D25">
-        <v>8.156986517558773</v>
+        <v>10.12393777314282</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.59160212640527</v>
+        <v>34.74324865467417</v>
       </c>
       <c r="G25">
-        <v>2.097695635068415</v>
+        <v>3.662915309994534</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.055162275612164</v>
+        <v>11.3097996683236</v>
       </c>
       <c r="K25">
-        <v>11.7725980433154</v>
+        <v>10.0115146820389</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.09525791450411</v>
+        <v>16.43479449563146</v>
       </c>
       <c r="N25">
-        <v>12.69550647229762</v>
+        <v>19.9949008822114</v>
       </c>
       <c r="O25">
-        <v>16.94566265679515</v>
+        <v>25.7780081464584</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_121/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_121/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.39602535399267</v>
+        <v>12.46165937025935</v>
       </c>
       <c r="C2">
-        <v>4.135582061848216</v>
+        <v>6.395181500546926</v>
       </c>
       <c r="D2">
-        <v>10.05864041608433</v>
+        <v>7.693360489085428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.79411174578443</v>
+        <v>24.08148696251264</v>
       </c>
       <c r="G2">
-        <v>3.665364992533431</v>
+        <v>2.104294863848354</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.33038245765799</v>
+        <v>6.966901639869922</v>
       </c>
       <c r="K2">
-        <v>9.7921287399933</v>
+        <v>10.87694081091101</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.32970447612944</v>
+        <v>12.3503646109682</v>
       </c>
       <c r="N2">
-        <v>20.07931252617129</v>
+        <v>12.98746830650421</v>
       </c>
       <c r="O2">
-        <v>25.86532493136859</v>
+        <v>16.87716321019304</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.16711443461404</v>
+        <v>11.62880076272308</v>
       </c>
       <c r="C3">
-        <v>3.97644282478712</v>
+        <v>6.07896834978733</v>
       </c>
       <c r="D3">
-        <v>10.01775615280918</v>
+        <v>7.369716129962264</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.84360220454653</v>
+        <v>23.76978789109426</v>
       </c>
       <c r="G3">
-        <v>3.667143155626547</v>
+        <v>2.108947281932776</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.34755289905068</v>
+        <v>6.914030755789777</v>
       </c>
       <c r="K3">
-        <v>9.643952018225587</v>
+        <v>10.22590920805418</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.26374454266087</v>
+        <v>11.82999068222201</v>
       </c>
       <c r="N3">
-        <v>20.14002625001507</v>
+        <v>13.1907156447759</v>
       </c>
       <c r="O3">
-        <v>25.93428203033342</v>
+        <v>16.85752469307643</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.02598674484173</v>
+        <v>11.08731100925199</v>
       </c>
       <c r="C4">
-        <v>3.874652717405173</v>
+        <v>5.876018890359302</v>
       </c>
       <c r="D4">
-        <v>9.994364236923495</v>
+        <v>7.167049663494438</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.88138645691993</v>
+        <v>23.59500086268857</v>
       </c>
       <c r="G4">
-        <v>3.668293479806635</v>
+        <v>2.111896096026358</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.35968546778925</v>
+        <v>6.884930638421029</v>
       </c>
       <c r="K4">
-        <v>9.553513760216759</v>
+        <v>9.804537433244921</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.22591919658767</v>
+        <v>11.50392556510749</v>
       </c>
       <c r="N4">
-        <v>20.17904413660762</v>
+        <v>13.3183206797849</v>
       </c>
       <c r="O4">
-        <v>25.98143678338791</v>
+        <v>16.85797507050209</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.968417188751427</v>
+        <v>10.85903793495362</v>
       </c>
       <c r="C5">
-        <v>3.832184830550421</v>
+        <v>5.79115536254</v>
       </c>
       <c r="D5">
-        <v>9.985269387815176</v>
+        <v>7.083591627270268</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.8986418649825</v>
+        <v>23.52791123247917</v>
       </c>
       <c r="G5">
-        <v>3.668777008248083</v>
+        <v>2.113121421018288</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.3650295072906</v>
+        <v>6.873907573827063</v>
       </c>
       <c r="K5">
-        <v>9.516841130804</v>
+        <v>9.627410552806669</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.21118917799142</v>
+        <v>11.36959770537383</v>
       </c>
       <c r="N5">
-        <v>20.19538291572005</v>
+        <v>13.3710489517996</v>
       </c>
       <c r="O5">
-        <v>26.00186190490783</v>
+        <v>16.86119813734718</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.958856809948324</v>
+        <v>10.8206725065111</v>
       </c>
       <c r="C6">
-        <v>3.825074624132272</v>
+        <v>5.776935090996168</v>
       </c>
       <c r="D6">
-        <v>9.983785823834895</v>
+        <v>7.069684825660564</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.90161926303517</v>
+        <v>23.51701965417803</v>
       </c>
       <c r="G6">
-        <v>3.66885819070324</v>
+        <v>2.113326327727503</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.36594103829449</v>
+        <v>6.872127340827412</v>
       </c>
       <c r="K6">
-        <v>9.51076396408231</v>
+        <v>9.597672761669424</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.20878491347097</v>
+        <v>11.34721100700165</v>
       </c>
       <c r="N6">
-        <v>20.1981224901104</v>
+        <v>13.37984903336323</v>
       </c>
       <c r="O6">
-        <v>26.00532646488492</v>
+        <v>16.86191378562709</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.02521046477322</v>
+        <v>11.0842633097166</v>
       </c>
       <c r="C7">
-        <v>3.87408392577054</v>
+        <v>5.874883061260673</v>
       </c>
       <c r="D7">
-        <v>9.994239799786277</v>
+        <v>7.165927467984645</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.8816116494013</v>
+        <v>23.59407937236281</v>
       </c>
       <c r="G7">
-        <v>3.668299941008928</v>
+        <v>2.111912524780461</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.35975591996589</v>
+        <v>6.884778609068866</v>
       </c>
       <c r="K7">
-        <v>9.553018384895212</v>
+        <v>9.802170517584546</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.22571775764457</v>
+        <v>11.50211958447134</v>
       </c>
       <c r="N7">
-        <v>20.17926270922635</v>
+        <v>13.31902881550762</v>
       </c>
       <c r="O7">
-        <v>25.98170734994255</v>
+        <v>16.85800637173105</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.31726695592237</v>
+        <v>12.18071475654864</v>
       </c>
       <c r="C8">
-        <v>4.081578463330859</v>
+        <v>6.288003685957245</v>
       </c>
       <c r="D8">
-        <v>10.04419286702543</v>
+        <v>7.582656387759824</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.80963978441845</v>
+        <v>23.97055022486793</v>
       </c>
       <c r="G8">
-        <v>3.665965983734516</v>
+        <v>2.105880169864822</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.33597294840288</v>
+        <v>6.947968086044967</v>
       </c>
       <c r="K8">
-        <v>9.740951809745644</v>
+        <v>10.65696740205807</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.30641364586157</v>
+        <v>12.17240906361615</v>
       </c>
       <c r="N8">
-        <v>20.09988637902383</v>
+        <v>13.05697795705721</v>
       </c>
       <c r="O8">
-        <v>25.88810112286009</v>
+        <v>16.86773250053715</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.8818010481764</v>
+        <v>14.09381676755037</v>
       </c>
       <c r="C9">
-        <v>4.454691219132172</v>
+        <v>7.026632329600869</v>
       </c>
       <c r="D9">
-        <v>10.15538753308379</v>
+        <v>8.363887843630142</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.72726346859058</v>
+        <v>24.84156621125316</v>
       </c>
       <c r="G9">
-        <v>3.661851395283432</v>
+        <v>2.0947599445898</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.30194227954211</v>
+        <v>7.098962916955741</v>
       </c>
       <c r="K9">
-        <v>10.11182333382776</v>
+        <v>12.1610139819047</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.48533302064598</v>
+        <v>13.42751594647628</v>
       </c>
       <c r="N9">
-        <v>19.95797147189642</v>
+        <v>12.56436777162114</v>
       </c>
       <c r="O9">
-        <v>25.74280919488118</v>
+        <v>16.990702007227</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.28697372016145</v>
+        <v>15.35758582096262</v>
       </c>
       <c r="C10">
-        <v>4.706609648543788</v>
+        <v>7.524031326564222</v>
       </c>
       <c r="D10">
-        <v>10.24466535458345</v>
+        <v>8.910707028375205</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.70262792124444</v>
+        <v>25.56324134568181</v>
       </c>
       <c r="G10">
-        <v>3.659107331724448</v>
+        <v>2.086989311799132</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.28461491602058</v>
+        <v>7.22688577797531</v>
       </c>
       <c r="K10">
-        <v>10.38312575776694</v>
+        <v>13.16104273595986</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.62861397317426</v>
+        <v>14.30527908953977</v>
       </c>
       <c r="N10">
-        <v>19.86199897744248</v>
+        <v>12.21389646739492</v>
       </c>
       <c r="O10">
-        <v>25.65947929521219</v>
+        <v>17.15059298266705</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.46832378864206</v>
+        <v>15.90233392701396</v>
       </c>
       <c r="C11">
-        <v>4.816125807520686</v>
+        <v>7.740276661512251</v>
       </c>
       <c r="D11">
-        <v>10.28681421994195</v>
+        <v>9.152736734441405</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.6992143821803</v>
+        <v>25.90931004308711</v>
       </c>
       <c r="G11">
-        <v>3.657918934975835</v>
+        <v>2.083533276961983</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.27839549108628</v>
+        <v>7.288853640542241</v>
       </c>
       <c r="K11">
-        <v>10.50576083118627</v>
+        <v>13.59333955647106</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.69618603384941</v>
+        <v>14.69365984372079</v>
       </c>
       <c r="N11">
-        <v>19.82012106566284</v>
+        <v>12.0565880720316</v>
       </c>
       <c r="O11">
-        <v>25.62667110521156</v>
+        <v>17.23970968540484</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.53650189730244</v>
+        <v>16.10433215869742</v>
       </c>
       <c r="C12">
-        <v>4.856847798498057</v>
+        <v>7.820712403565436</v>
       </c>
       <c r="D12">
-        <v>10.30298567148032</v>
+        <v>9.243366639938982</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.69904135237303</v>
+        <v>26.0429048032535</v>
       </c>
       <c r="G12">
-        <v>3.657477485692902</v>
+        <v>2.082235237899845</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.27627909273758</v>
+        <v>7.31286770861982</v>
       </c>
       <c r="K12">
-        <v>10.55204454432226</v>
+        <v>13.75380591172857</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.72210190702038</v>
+        <v>14.83907620775063</v>
       </c>
       <c r="N12">
-        <v>19.80451767950189</v>
+        <v>11.99729375155663</v>
       </c>
       <c r="O12">
-        <v>25.61498184686521</v>
+        <v>17.27591195462026</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.52184159265686</v>
+        <v>16.06101804920443</v>
       </c>
       <c r="C13">
-        <v>4.84811118417208</v>
+        <v>7.803453797723464</v>
       </c>
       <c r="D13">
-        <v>10.29949366105405</v>
+        <v>9.223894060466641</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.69902884689103</v>
+        <v>26.01401973069439</v>
       </c>
       <c r="G13">
-        <v>3.657572179164179</v>
+        <v>2.082514329406595</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.27672428425563</v>
+        <v>7.307671387803404</v>
       </c>
       <c r="K13">
-        <v>10.54208410447951</v>
+        <v>13.71939015256809</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.71650614567154</v>
+        <v>14.80783296738837</v>
       </c>
       <c r="N13">
-        <v>19.80786683078974</v>
+        <v>12.01005211828462</v>
       </c>
       <c r="O13">
-        <v>25.61746665253674</v>
+        <v>17.26800436857096</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.47394314518577</v>
+        <v>15.91903805497558</v>
       </c>
       <c r="C14">
-        <v>4.819491145464451</v>
+        <v>7.746923291920714</v>
       </c>
       <c r="D14">
-        <v>10.28814049446075</v>
+        <v>9.160213660149587</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.69917771688472</v>
+        <v>25.92025000415272</v>
       </c>
       <c r="G14">
-        <v>3.657882445143219</v>
+        <v>2.083426276227182</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.27821659080953</v>
+        <v>7.290818276769126</v>
       </c>
       <c r="K14">
-        <v>10.50957197817766</v>
+        <v>13.60660593511385</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.69831167379665</v>
+        <v>14.70565692918765</v>
       </c>
       <c r="N14">
-        <v>19.81883226430754</v>
+        <v>12.05170456233111</v>
       </c>
       <c r="O14">
-        <v>25.62569469587718</v>
+        <v>17.24263828934735</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.44453750781591</v>
+        <v>15.83151452292057</v>
       </c>
       <c r="C15">
-        <v>4.801862449629326</v>
+        <v>7.712107461078327</v>
       </c>
       <c r="D15">
-        <v>10.28121346666583</v>
+        <v>9.12107310052609</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.6994146663917</v>
+        <v>25.86314456811236</v>
       </c>
       <c r="G15">
-        <v>3.658073606954351</v>
+        <v>2.083986241564852</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.27916175404393</v>
+        <v>7.280566800876885</v>
       </c>
       <c r="K15">
-        <v>10.48963585641559</v>
+        <v>13.53710166201521</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.687209231719</v>
+        <v>14.64285340098015</v>
       </c>
       <c r="N15">
-        <v>19.82558206640476</v>
+        <v>12.07725276313318</v>
       </c>
       <c r="O15">
-        <v>25.63083029744224</v>
+        <v>17.22742355768471</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.27505640775234</v>
+        <v>15.321382771191</v>
       </c>
       <c r="C16">
-        <v>4.699348584998692</v>
+        <v>7.509696479030442</v>
       </c>
       <c r="D16">
-        <v>10.24194086347084</v>
+        <v>8.894749619987378</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.70300774958741</v>
+        <v>25.54098183832508</v>
       </c>
       <c r="G16">
-        <v>3.659186197857772</v>
+        <v>2.087216703724481</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.28505480225415</v>
+        <v>7.222912462190339</v>
       </c>
       <c r="K16">
-        <v>10.37509181390562</v>
+        <v>13.13233732929613</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.62424474958678</v>
+        <v>14.27967012670551</v>
       </c>
       <c r="N16">
-        <v>19.86477152563385</v>
+        <v>12.22421710882483</v>
       </c>
       <c r="O16">
-        <v>25.66172610353114</v>
+        <v>17.1451072569319</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.17027532637172</v>
+        <v>15.0007464810642</v>
       </c>
       <c r="C17">
-        <v>4.635143750621423</v>
+        <v>7.382947500392745</v>
       </c>
       <c r="D17">
-        <v>10.21823458190106</v>
+        <v>8.754143416503771</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>34.70720749680923</v>
+        <v>25.34789200065259</v>
       </c>
       <c r="G17">
-        <v>3.659884046318761</v>
+        <v>2.089218233490119</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.28909566413928</v>
+        <v>7.188514220920101</v>
       </c>
       <c r="K17">
-        <v>10.30459134323436</v>
+        <v>12.87824467534736</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.58621951964303</v>
+        <v>14.05400645786075</v>
       </c>
       <c r="N17">
-        <v>19.88926818045543</v>
+        <v>12.31489768829375</v>
       </c>
       <c r="O17">
-        <v>25.68198659795639</v>
+        <v>17.09887671854112</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.10973275700681</v>
+        <v>14.81348437379815</v>
       </c>
       <c r="C18">
-        <v>4.5977373252529</v>
+        <v>7.309101582874979</v>
       </c>
       <c r="D18">
-        <v>10.20474456301401</v>
+        <v>8.672640385894637</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>34.71035672813804</v>
+        <v>25.23850578300612</v>
       </c>
       <c r="G18">
-        <v>3.660291070031744</v>
+        <v>2.090376925051482</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.29157640414303</v>
+        <v>7.169084311559063</v>
       </c>
       <c r="K18">
-        <v>10.26397023612944</v>
+        <v>12.72996665475942</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.56457464748382</v>
+        <v>13.9231869305184</v>
       </c>
       <c r="N18">
-        <v>19.90352566195465</v>
+        <v>12.36725648422845</v>
       </c>
       <c r="O18">
-        <v>25.69411977371827</v>
+        <v>17.07382224489256</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.08918898290078</v>
+        <v>14.7495913021573</v>
       </c>
       <c r="C19">
-        <v>4.584990751121203</v>
+        <v>7.283937019610558</v>
       </c>
       <c r="D19">
-        <v>10.20020232138622</v>
+        <v>8.644938502935251</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>34.71154902986176</v>
+        <v>25.20175724369518</v>
       </c>
       <c r="G19">
-        <v>3.660429851169302</v>
+        <v>2.090770539456635</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.29244323644765</v>
+        <v>7.162566488713979</v>
       </c>
       <c r="K19">
-        <v>10.25020575561714</v>
+        <v>12.67939586719418</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.55728540942096</v>
+        <v>13.87872073487242</v>
       </c>
       <c r="N19">
-        <v>19.90838183032692</v>
+        <v>12.38501981239392</v>
       </c>
       <c r="O19">
-        <v>25.69831023687434</v>
+        <v>17.06559996046417</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.18145845397043</v>
+        <v>15.03517240258394</v>
       </c>
       <c r="C20">
-        <v>4.64202802751934</v>
+        <v>7.396537860286151</v>
       </c>
       <c r="D20">
-        <v>10.22074320100233</v>
+        <v>8.769176828975604</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.70668450229847</v>
+        <v>25.36827355902577</v>
       </c>
       <c r="G20">
-        <v>3.659809175769005</v>
+        <v>2.089004399289861</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.28864930827036</v>
+        <v>7.192139186307421</v>
       </c>
       <c r="K20">
-        <v>10.31210391484706</v>
+        <v>12.90551367324071</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.5902440722284</v>
+        <v>14.07813536656916</v>
       </c>
       <c r="N20">
-        <v>19.88664312662453</v>
+        <v>12.30522392158732</v>
       </c>
       <c r="O20">
-        <v>25.67978015885109</v>
+        <v>17.10363832238351</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.48802604567377</v>
+        <v>15.96085694377289</v>
       </c>
       <c r="C21">
-        <v>4.827918016827801</v>
+        <v>7.763567125100128</v>
       </c>
       <c r="D21">
-        <v>10.29146956283606</v>
+        <v>9.178946245096684</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.69910361626456</v>
+        <v>25.94772343919023</v>
       </c>
       <c r="G21">
-        <v>3.657791080225322</v>
+        <v>2.083158130729333</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.27777178738071</v>
+        <v>7.295753525853151</v>
       </c>
       <c r="K21">
-        <v>10.51912613411864</v>
+        <v>13.63982102469434</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.70364706710393</v>
+        <v>14.73571401574856</v>
       </c>
       <c r="N21">
-        <v>19.81560454274564</v>
+        <v>12.03946301844534</v>
       </c>
       <c r="O21">
-        <v>25.62325797687098</v>
+        <v>17.25002149191825</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.68547056926913</v>
+        <v>16.54088693017888</v>
       </c>
       <c r="C22">
-        <v>4.945033095779664</v>
+        <v>7.994979383668563</v>
       </c>
       <c r="D22">
-        <v>10.33891582411508</v>
+        <v>9.440782152881507</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.70067400252727</v>
+        <v>26.34126180246885</v>
       </c>
       <c r="G22">
-        <v>3.656522076120742</v>
+        <v>2.079399211473206</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.27205418437173</v>
+        <v>7.366668985951305</v>
       </c>
       <c r="K22">
-        <v>10.65350179172834</v>
+        <v>14.10088869610298</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.77966525559049</v>
+        <v>15.18191789072655</v>
       </c>
       <c r="N22">
-        <v>19.77066177035132</v>
+        <v>11.86736011522789</v>
       </c>
       <c r="O22">
-        <v>25.59059912371918</v>
+        <v>17.36004940655477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.58037895748449</v>
+        <v>16.23358104413691</v>
       </c>
       <c r="C23">
-        <v>4.882932275575184</v>
+        <v>7.872246669957342</v>
       </c>
       <c r="D23">
-        <v>10.31348448081055</v>
+        <v>9.301597264191116</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.69923935205707</v>
+        <v>26.1298694912623</v>
       </c>
       <c r="G23">
-        <v>3.657194811803758</v>
+        <v>2.081399975267781</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.27497858881323</v>
+        <v>7.328525821932582</v>
       </c>
       <c r="K23">
-        <v>10.58188144956507</v>
+        <v>13.8565252784116</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.73892432073007</v>
+        <v>14.9325036561861</v>
       </c>
       <c r="N23">
-        <v>19.79451307142094</v>
+        <v>11.95907995147865</v>
       </c>
       <c r="O23">
-        <v>25.6076376164378</v>
+        <v>17.2999793902577</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.17640349900157</v>
+        <v>15.01961755486339</v>
       </c>
       <c r="C24">
-        <v>4.638917183881428</v>
+        <v>7.390396698516423</v>
       </c>
       <c r="D24">
-        <v>10.21960862044923</v>
+        <v>8.762382295374252</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.70691865936683</v>
+        <v>25.35905399826897</v>
       </c>
       <c r="G24">
-        <v>3.659843006608078</v>
+        <v>2.089101048809954</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.28885061484023</v>
+        <v>7.19049926184367</v>
       </c>
       <c r="K24">
-        <v>10.30870775652175</v>
+        <v>12.89319220303114</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.58842389689858</v>
+        <v>14.06723005197963</v>
       </c>
       <c r="N24">
-        <v>19.88782937127143</v>
+        <v>12.3095967274163</v>
       </c>
       <c r="O24">
-        <v>25.68077617884781</v>
+        <v>17.10148086173698</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.73044655665825</v>
+        <v>13.60137343603136</v>
       </c>
       <c r="C25">
-        <v>4.357552632141795</v>
+        <v>6.834672328460038</v>
       </c>
       <c r="D25">
-        <v>10.12393777314282</v>
+        <v>8.156986517558751</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>34.74324865467417</v>
+        <v>24.59160212640529</v>
       </c>
       <c r="G25">
-        <v>3.662915309994534</v>
+        <v>2.097695635068548</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.3097996683236</v>
+        <v>7.055162275612151</v>
       </c>
       <c r="K25">
-        <v>10.0115146820389</v>
+        <v>11.7725980433154</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.43479449563146</v>
+        <v>13.09525791450411</v>
       </c>
       <c r="N25">
-        <v>19.9949008822114</v>
+        <v>12.69550647229762</v>
       </c>
       <c r="O25">
-        <v>25.7780081464584</v>
+        <v>16.94566265679518</v>
       </c>
     </row>
   </sheetData>
